--- a/data/excel_files/Abbreviation_expanded.xlsx
+++ b/data/excel_files/Abbreviation_expanded.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sufarhansudaryo/Documents/Work/semantic-automapper/data/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD85BC70-7475-2C41-9521-CCD0F513BAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6EE5DF-7FCA-6448-8DC5-E9BF6A7C49F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2260" yWindow="22360" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="261">
   <si>
     <t>Code</t>
   </si>
@@ -49,12 +62,6 @@
     <t>AX</t>
   </si>
   <si>
-    <t>Extra High Strength</t>
-  </si>
-  <si>
-    <t>Steel AT</t>
-  </si>
-  <si>
     <t>HSA840 Steel</t>
   </si>
   <si>
@@ -136,6 +143,48 @@
     <t>Hollow Tube Bolt</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Galvanised</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Thermal Diffused</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>Thermal Metal Spray</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Plas coating</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Perth</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>no suffix</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
     <t>EULA</t>
   </si>
   <si>
@@ -190,6 +239,45 @@
     <t>Coil Pack</t>
   </si>
   <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Debonding Tube</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Grout Tube</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Breather Tube</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>Refer Drawing</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Steel Aglet</t>
+  </si>
+  <si>
+    <t>Freight Cost</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Sea freight</t>
+  </si>
+  <si>
     <t>FG</t>
   </si>
   <si>
@@ -199,15 +287,9 @@
     <t>DYWI-GRiP</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>Plastic</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Bolt without continuous thread</t>
   </si>
   <si>
@@ -277,6 +359,36 @@
     <t>Octo plate</t>
   </si>
   <si>
+    <t>Freight included to Perth</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Rumbled</t>
+  </si>
+  <si>
+    <t>XB</t>
+  </si>
+  <si>
+    <t>Bundled for Galvanisining</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Flared hole</t>
+  </si>
+  <si>
+    <t>Indicator Posts</t>
+  </si>
+  <si>
+    <t>SS316</t>
+  </si>
+  <si>
+    <t>Stainless Steel</t>
+  </si>
+  <si>
     <t>FB</t>
   </si>
   <si>
@@ -322,15 +434,6 @@
     <t>Friction Bolt Spiral large Dome</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Gal</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
     <t>Thermal Diffised</t>
   </si>
   <si>
@@ -397,6 +500,15 @@
     <t>Mesh L Bend</t>
   </si>
   <si>
+    <t>Western Australia</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
     <t>S</t>
   </si>
   <si>
@@ -532,6 +644,21 @@
     <t>Resin Single Extreme</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Half Pallet</t>
+  </si>
+  <si>
+    <t>Exworks Rocbolt</t>
+  </si>
+  <si>
+    <t>Dunnage bags</t>
+  </si>
+  <si>
     <t>SB</t>
   </si>
   <si>
@@ -614,6 +741,81 @@
   </si>
   <si>
     <t>Hooks</t>
+  </si>
+  <si>
+    <t>7948</t>
+  </si>
+  <si>
+    <t>Closed loop in 12mm round bar to suit 20mm Thread Bar (36AF Nut)</t>
+  </si>
+  <si>
+    <t>7985</t>
+  </si>
+  <si>
+    <t>Closed Loop 12mm Round Bar to suit M24 thread (OZ nut 36AF)</t>
+  </si>
+  <si>
+    <t>8033</t>
+  </si>
+  <si>
+    <t>3 x Open Hooks in 16mm round bar to suit 110mm pipe</t>
+  </si>
+  <si>
+    <t>8036</t>
+  </si>
+  <si>
+    <t>4 x Open Hooks in 16mm round bar to suit 110mm pipe</t>
+  </si>
+  <si>
+    <t>7471</t>
+  </si>
+  <si>
+    <t>Single keyhole bracket with 26mm mounting hole</t>
+  </si>
+  <si>
+    <t>7513</t>
+  </si>
+  <si>
+    <t>Fan hanger "T" shaped in 16 &amp; 12mm plate with a single keyhole</t>
+  </si>
+  <si>
+    <t>7514</t>
+  </si>
+  <si>
+    <t>6 x Keyholes with 3 x 28mm mounting holes</t>
+  </si>
+  <si>
+    <t>7523</t>
+  </si>
+  <si>
+    <t>3 Keyholes and 8mm chains with 3 x 26mm mounting holes</t>
+  </si>
+  <si>
+    <t>7525</t>
+  </si>
+  <si>
+    <t>1 Keyhole and 8mm chain with 1 x 26mm mounting hole</t>
+  </si>
+  <si>
+    <t>7526</t>
+  </si>
+  <si>
+    <t>7 Keyholes with 3 x 26mm mounting holes</t>
+  </si>
+  <si>
+    <t>EZ</t>
+  </si>
+  <si>
+    <t>Electroplated Zinc</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Extra High Strength Steel</t>
+  </si>
+  <si>
+    <t>AT</t>
   </si>
 </sst>
 </file>
@@ -658,7 +860,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -677,51 +881,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -732,18 +892,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CE46A4E8-EB5E-3E45-8B68-912EC5F464FB}" name="Table3" displayName="Table3" ref="A1:C97" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:C97" xr:uid="{CE46A4E8-EB5E-3E45-8B68-912EC5F464FB}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{10F0BF11-644E-3047-A0C0-16AE374622CB}" name="Code"/>
-    <tableColumn id="2" xr3:uid="{75BE176E-2116-9940-886A-F03D5A4C0033}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{C1FF7DCA-C89E-FD4A-88A7-A9E0138248A0}" name="Sheet"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1031,15 +1179,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1082,7 +1230,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1090,10 +1238,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1101,10 +1249,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1112,10 +1260,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1123,10 +1271,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1134,10 +1282,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1145,10 +1293,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1156,10 +1304,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1167,10 +1315,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1178,10 +1326,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1189,10 +1337,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1200,10 +1348,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1211,910 +1359,1460 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C27" t="s">
         <v>52</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>55</v>
       </c>
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>57</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>60</v>
       </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="G32" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C72" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C73" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C74" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C75" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C80" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C81" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C82" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C83" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C84" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="B85" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C85" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C86" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B87" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
+        <v>47</v>
       </c>
       <c r="C88" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="B89" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="C89" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B90" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="C90" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B91" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C91" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C92" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="B93" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C93" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="B94" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="C94" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="B96" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C96" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>170</v>
+      </c>
+      <c r="B97" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>172</v>
+      </c>
+      <c r="B98" t="s">
+        <v>173</v>
+      </c>
+      <c r="C98" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99" t="s">
+        <v>175</v>
+      </c>
+      <c r="C99" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>178</v>
+      </c>
+      <c r="B101" t="s">
+        <v>179</v>
+      </c>
+      <c r="C101" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>180</v>
+      </c>
+      <c r="B102" t="s">
+        <v>181</v>
+      </c>
+      <c r="C102" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>182</v>
+      </c>
+      <c r="B103" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>166</v>
+      </c>
+      <c r="B104" t="s">
+        <v>167</v>
+      </c>
+      <c r="C104" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>184</v>
+      </c>
+      <c r="B105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C105" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>44</v>
+      </c>
+      <c r="B106" t="s">
+        <v>155</v>
+      </c>
+      <c r="C106" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>46</v>
+      </c>
+      <c r="B107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>186</v>
+      </c>
+      <c r="B108" t="s">
+        <v>187</v>
+      </c>
+      <c r="C108" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>189</v>
+      </c>
+      <c r="B109" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>191</v>
+      </c>
+      <c r="B110" t="s">
+        <v>192</v>
+      </c>
+      <c r="C110" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>193</v>
+      </c>
+      <c r="B111" t="s">
+        <v>194</v>
+      </c>
+      <c r="C111" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>195</v>
+      </c>
+      <c r="B112" t="s">
         <v>196</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C112" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>197</v>
       </c>
-      <c r="C97" t="s">
-        <v>190</v>
+      <c r="B113" t="s">
+        <v>198</v>
+      </c>
+      <c r="C113" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>199</v>
+      </c>
+      <c r="B114" t="s">
+        <v>200</v>
+      </c>
+      <c r="C114" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>201</v>
+      </c>
+      <c r="B115" t="s">
+        <v>202</v>
+      </c>
+      <c r="C115" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>44</v>
+      </c>
+      <c r="B116" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>46</v>
+      </c>
+      <c r="B117" t="s">
+        <v>47</v>
+      </c>
+      <c r="C117" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>203</v>
+      </c>
+      <c r="B118" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>204</v>
+      </c>
+      <c r="B119" t="s">
+        <v>205</v>
+      </c>
+      <c r="C119" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>109</v>
+      </c>
+      <c r="B120" t="s">
+        <v>206</v>
+      </c>
+      <c r="C120" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>86</v>
+      </c>
+      <c r="B121" t="s">
+        <v>207</v>
+      </c>
+      <c r="C121" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>208</v>
+      </c>
+      <c r="B122" t="s">
+        <v>209</v>
+      </c>
+      <c r="C122" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>211</v>
+      </c>
+      <c r="B123" t="s">
+        <v>212</v>
+      </c>
+      <c r="C123" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>213</v>
+      </c>
+      <c r="B124" t="s">
+        <v>214</v>
+      </c>
+      <c r="C124" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>215</v>
+      </c>
+      <c r="B125" t="s">
+        <v>216</v>
+      </c>
+      <c r="C125" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>217</v>
+      </c>
+      <c r="B126" t="s">
+        <v>218</v>
+      </c>
+      <c r="C126" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>215</v>
+      </c>
+      <c r="B127" t="s">
+        <v>219</v>
+      </c>
+      <c r="C127" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>220</v>
+      </c>
+      <c r="B128" t="s">
+        <v>221</v>
+      </c>
+      <c r="C128" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>222</v>
+      </c>
+      <c r="B129" t="s">
+        <v>223</v>
+      </c>
+      <c r="C129" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>224</v>
+      </c>
+      <c r="B130" t="s">
+        <v>225</v>
+      </c>
+      <c r="C130" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>226</v>
+      </c>
+      <c r="B131" t="s">
+        <v>227</v>
+      </c>
+      <c r="C131" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>229</v>
+      </c>
+      <c r="B132" t="s">
+        <v>230</v>
+      </c>
+      <c r="C132" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>231</v>
+      </c>
+      <c r="B133" t="s">
+        <v>230</v>
+      </c>
+      <c r="C133" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>232</v>
+      </c>
+      <c r="B134" t="s">
+        <v>233</v>
+      </c>
+      <c r="C134" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>234</v>
+      </c>
+      <c r="B135" t="s">
+        <v>235</v>
+      </c>
+      <c r="C135" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>236</v>
+      </c>
+      <c r="B136" t="s">
+        <v>237</v>
+      </c>
+      <c r="C136" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>238</v>
+      </c>
+      <c r="B137" t="s">
+        <v>239</v>
+      </c>
+      <c r="C137" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>240</v>
+      </c>
+      <c r="B138" t="s">
+        <v>241</v>
+      </c>
+      <c r="C138" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>242</v>
+      </c>
+      <c r="B139" t="s">
+        <v>243</v>
+      </c>
+      <c r="C139" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>244</v>
+      </c>
+      <c r="B140" t="s">
+        <v>245</v>
+      </c>
+      <c r="C140" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>246</v>
+      </c>
+      <c r="B141" t="s">
+        <v>247</v>
+      </c>
+      <c r="C141" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>248</v>
+      </c>
+      <c r="B142" t="s">
+        <v>249</v>
+      </c>
+      <c r="C142" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>250</v>
+      </c>
+      <c r="B143" t="s">
+        <v>251</v>
+      </c>
+      <c r="C143" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>252</v>
+      </c>
+      <c r="B144" t="s">
+        <v>253</v>
+      </c>
+      <c r="C144" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>254</v>
+      </c>
+      <c r="B145" t="s">
+        <v>255</v>
+      </c>
+      <c r="C145" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>36</v>
+      </c>
+      <c r="B146" t="s">
+        <v>37</v>
+      </c>
+      <c r="C146" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>256</v>
+      </c>
+      <c r="B147" t="s">
+        <v>257</v>
+      </c>
+      <c r="C147" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>